--- a/medicine/Sexualité et sexologie/Prostitution_à_Bahreïn/Prostitution_à_Bahreïn.xlsx
+++ b/medicine/Sexualité et sexologie/Prostitution_à_Bahreïn/Prostitution_à_Bahreïn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prostitution_%C3%A0_Bahre%C3%AFn</t>
+          <t>Prostitution_à_Bahreïn</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prostitution à Bahreïn est illégale[1],[2] mais elle a acquis une réputation au Moyen-Orient en tant que destination majeure pour le tourisme sexuel[3].
-La Bahrain Youth Society for Human Rights a signalé en 2007 qu'il y avait plus de 13 500 prostituées dans le pays et que leur nombre était en augmentation[4].
-Le trafic sexuel est un problème dans le pays[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prostitution à Bahreïn est illégale, mais elle a acquis une réputation au Moyen-Orient en tant que destination majeure pour le tourisme sexuel.
+La Bahrain Youth Society for Human Rights a signalé en 2007 qu'il y avait plus de 13 500 prostituées dans le pays et que leur nombre était en augmentation.
+Le trafic sexuel est un problème dans le pays.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prostitution_%C3%A0_Bahre%C3%AFn</t>
+          <t>Prostitution_à_Bahreïn</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,12 @@
           <t>Aperçu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prostitution est courante, en particulier à Manama[3],[6]. La plupart de la prostitution se produit dans les bars et les hôtels, mais certaines prostituées, principalement russes, attirent les clients dans les centres commerciaux[7]. Il existe aussi de la prostitution de rue[8]. La plupart des prostituées sont étrangères: russes, thaïlandaises, philippines, éthiopiennes, bangladaises et chinoises. Chaque hôtel ou bar a tendance à avoir une nationalité de prostituées. Dans certains hôtels, les femmes vont frapper à la porte des clients tard dans la nuit à la recherche de clients. Les hôtels et les bars tolèrent les prostituées car cela attire des clients masculins et augmente les ventes d'alcool. 
-Beaucoup de clients sont des Saoudiens qui se rendent à Bahreïn où les lois sont beaucoup moins strictes que dans leur pays d'origine, en particulier en ce qui concerne le sexe et l'alcool[6],[9],[10].
-Ville du péché
-En 2009, Manama a été placé au numéro 8 dans le top 10 des «villes du péché» du monde par le magazine AskMen[4],[10]. Cela a provoqué une répression au cours de laquelle 300 prostituées et proxénètes ont été arrêtés au cours de la première semaine[11], et le bloc parlementaire Al Asalah a proposé que le pays cesse de délivrer des visas aux femmes russes, thaïlandaises, éthiopiennes et chinoises pour empêcher les prostituées d'entrer dans le pays. La proposition n'a finalement pas été adoptée[12].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prostitution est courante, en particulier à Manama,. La plupart de la prostitution se produit dans les bars et les hôtels, mais certaines prostituées, principalement russes, attirent les clients dans les centres commerciaux. Il existe aussi de la prostitution de rue. La plupart des prostituées sont étrangères: russes, thaïlandaises, philippines, éthiopiennes, bangladaises et chinoises. Chaque hôtel ou bar a tendance à avoir une nationalité de prostituées. Dans certains hôtels, les femmes vont frapper à la porte des clients tard dans la nuit à la recherche de clients. Les hôtels et les bars tolèrent les prostituées car cela attire des clients masculins et augmente les ventes d'alcool. 
+Beaucoup de clients sont des Saoudiens qui se rendent à Bahreïn où les lois sont beaucoup moins strictes que dans leur pays d'origine, en particulier en ce qui concerne le sexe et l'alcool.
 </t>
         </is>
       </c>
@@ -529,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prostitution_%C3%A0_Bahre%C3%AFn</t>
+          <t>Prostitution_à_Bahreïn</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +556,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Situation juridique</t>
+          <t>Aperçu</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La prostitution et les activités connexes sont interdites par le Code pénal de Bahreïn[13].
+          <t>Ville du péché</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2009, Manama a été placé au numéro 8 dans le top 10 des «villes du péché» du monde par le magazine AskMen,. Cela a provoqué une répression au cours de laquelle 300 prostituées et proxénètes ont été arrêtés au cours de la première semaine, et le bloc parlementaire Al Asalah a proposé que le pays cesse de délivrer des visas aux femmes russes, thaïlandaises, éthiopiennes et chinoises pour empêcher les prostituées d'entrer dans le pays. La proposition n'a finalement pas été adoptée.
 </t>
         </is>
       </c>
@@ -560,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prostitution_%C3%A0_Bahre%C3%AFn</t>
+          <t>Prostitution_à_Bahreïn</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,16 +593,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Historique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prostitution est pratiquée à Bahreïn depuis de nombreuses années[8].
-Après la Première Guerre mondiale, de nombreux travailleurs étrangers, en particulier d'Iran, d'Irak et d'Inde, sont venus dans le pays et y ont alimenté la demande de prostitution. Il y avait deux zones désignées pour les lupanars : l'une à Gulba, à l'ouest de Manama et l'autre à Muharraq. Les prostituées, hommes et femmes, travaillaient dans ces lupanars. En 1937, il fut décrété que les prostituées ne pouvaient vivre et travailler que dans ces zones, toute activité en dehors de ces zones devait être proscrite. La plupart des femmes prostituées venaient d'Iran, d’Irak et d’Oman, et étaient connues sous le nom de «filles du vent» ou de «filles de l’amour». Les hommes prostitués étaient principalement des garçons omanais. Ces deux zones chaudes ont économiquement décliné dans les années 1970, avec la construction d'hôtels et la prostitution se répandant dans les hôtels[8].
-Après l'indépendance en 1971, les citoyens britanniques pouvaient entrer dans le pays pendant 3 mois sans visa. Certaines prostituées britanniques sont venues travailler sur les îles pendant de courtes périodes. Certains d'entre elles ont alterné leur temps entre Bahreïn et les Émirats arabes unis. L'exemption de visa a ensuite été abandonnée en 1996[8].
-Après l'ouverture de la chaussée du roi Fahd en 1986, de nombreux Saoudiens sont venus dans le pays en raison de son attitude plus détendue à l'égard du sexe et de l'alcool. Les visiteurs saoudiens qui voulaient «faire la fête», ont considérablement fait augmenter la demande en prostitution[8].
-Des prostituées de nationalités différentes sont venues dans le pays à des moments différents. Dans les années 1980 et 1990, il s'agissait principalement de Philippin(e)s et de Sri Lankais(es). À la suite de l'effondrement du communisme, des prostituées russes sont venues dans le pays et 1996 a vu l'arrivée des Bosniaques[8].
+          <t>Situation juridique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prostitution et les activités connexes sont interdites par le Code pénal de Bahreïn.
 </t>
         </is>
       </c>
@@ -595,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prostitution_%C3%A0_Bahre%C3%AFn</t>
+          <t>Prostitution_à_Bahreïn</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,15 +626,54 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prostitution est pratiquée à Bahreïn depuis de nombreuses années.
+Après la Première Guerre mondiale, de nombreux travailleurs étrangers, en particulier d'Iran, d'Irak et d'Inde, sont venus dans le pays et y ont alimenté la demande de prostitution. Il y avait deux zones désignées pour les lupanars : l'une à Gulba, à l'ouest de Manama et l'autre à Muharraq. Les prostituées, hommes et femmes, travaillaient dans ces lupanars. En 1937, il fut décrété que les prostituées ne pouvaient vivre et travailler que dans ces zones, toute activité en dehors de ces zones devait être proscrite. La plupart des femmes prostituées venaient d'Iran, d’Irak et d’Oman, et étaient connues sous le nom de «filles du vent» ou de «filles de l’amour». Les hommes prostitués étaient principalement des garçons omanais. Ces deux zones chaudes ont économiquement décliné dans les années 1970, avec la construction d'hôtels et la prostitution se répandant dans les hôtels.
+Après l'indépendance en 1971, les citoyens britanniques pouvaient entrer dans le pays pendant 3 mois sans visa. Certaines prostituées britanniques sont venues travailler sur les îles pendant de courtes périodes. Certains d'entre elles ont alterné leur temps entre Bahreïn et les Émirats arabes unis. L'exemption de visa a ensuite été abandonnée en 1996.
+Après l'ouverture de la chaussée du roi Fahd en 1986, de nombreux Saoudiens sont venus dans le pays en raison de son attitude plus détendue à l'égard du sexe et de l'alcool. Les visiteurs saoudiens qui voulaient «faire la fête», ont considérablement fait augmenter la demande en prostitution.
+Des prostituées de nationalités différentes sont venues dans le pays à des moments différents. Dans les années 1980 et 1990, il s'agissait principalement de Philippin(e)s et de Sri Lankais(es). À la suite de l'effondrement du communisme, des prostituées russes sont venues dans le pays et 1996 a vu l'arrivée des Bosniaques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Prostitution_à_Bahreïn</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prostitution_%C3%A0_Bahre%C3%AFn</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Trafic sexuel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bahreïn est un pays de destination pour les femmes victimes de trafic sexuel, principalement du Bangladesh, d'Inde, du Pakistan, des Philippines, du Népal, d'Égypte, de Jordanie, du Yémen, de Thaïlande, de Syrie et du Kenya[5].
-En 2015, le gouvernement a condamné 17 trafiquants sexuels et leur a imposé des peines de prison de 10 ans plus des amendes et une expulsion de territoire. Les responsables ont signalé que trois employés du gouvernement auraient été complices de crimes potentiels liés à la traite. Les médias ont rapporté l'arrestation de deux policiers pour leur rôle dans le trafic sexuel de femmes étrangères[5].
-Deux femmes russes ont été expulsées de Bahreïn vers la Russie en 2016 pour leur implication dans un réseau de trafic sexuel. Elles ont attiré des femmes de l'Oural vers Bahreïn entre 2011 et 2016 avec des promesses de travail. Une fois sur place, elles ont été contraintes à la prostitution. L'une des femmes a été condamnée à une peine de six ans de prison pour trafic de 23 femmes à Bahreïn à des fins de prostitution, par les tribunaux russes, en juin 2017[14].
-Le Bureau de surveillance et de lutte contre la traite des personnes du département d'État des États-Unis classe Bahreïn comme un pays de « niveau 1 »[15].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bahreïn est un pays de destination pour les femmes victimes de trafic sexuel, principalement du Bangladesh, d'Inde, du Pakistan, des Philippines, du Népal, d'Égypte, de Jordanie, du Yémen, de Thaïlande, de Syrie et du Kenya.
+En 2015, le gouvernement a condamné 17 trafiquants sexuels et leur a imposé des peines de prison de 10 ans plus des amendes et une expulsion de territoire. Les responsables ont signalé que trois employés du gouvernement auraient été complices de crimes potentiels liés à la traite. Les médias ont rapporté l'arrestation de deux policiers pour leur rôle dans le trafic sexuel de femmes étrangères.
+Deux femmes russes ont été expulsées de Bahreïn vers la Russie en 2016 pour leur implication dans un réseau de trafic sexuel. Elles ont attiré des femmes de l'Oural vers Bahreïn entre 2011 et 2016 avec des promesses de travail. Une fois sur place, elles ont été contraintes à la prostitution. L'une des femmes a été condamnée à une peine de six ans de prison pour trafic de 23 femmes à Bahreïn à des fins de prostitution, par les tribunaux russes, en juin 2017.
+Le Bureau de surveillance et de lutte contre la traite des personnes du département d'État des États-Unis classe Bahreïn comme un pays de « niveau 1 ».
 </t>
         </is>
       </c>
